--- a/7/5/1/1/A precios corrientes 1996 a 2021 - Trimestral.xlsx
+++ b/7/5/1/1/A precios corrientes 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Serie</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3029,22 +3032,45 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>54525</v>
+        <v>54616</v>
       </c>
       <c r="C102">
-        <v>10735</v>
+        <v>10810</v>
       </c>
       <c r="D102">
-        <v>43789</v>
+        <v>43806</v>
       </c>
       <c r="E102">
-        <v>17051</v>
+        <v>17252</v>
       </c>
       <c r="F102">
-        <v>15371</v>
+        <v>15434</v>
       </c>
       <c r="G102">
-        <v>56205</v>
+        <v>56433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>55836</v>
+      </c>
+      <c r="C103">
+        <v>11578</v>
+      </c>
+      <c r="D103">
+        <v>44258</v>
+      </c>
+      <c r="E103">
+        <v>17716</v>
+      </c>
+      <c r="F103">
+        <v>16126</v>
+      </c>
+      <c r="G103">
+        <v>57427</v>
       </c>
     </row>
   </sheetData>
